--- a/results/cu_mnm/15x15/cu_mnm_15x15_True_2_500.xlsx
+++ b/results/cu_mnm/15x15/cu_mnm_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,42 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Experiment_Time</t>
+          <t>Avg_Experiment_Time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Std_Total_Rounds</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Cost</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Eff</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Round_Time</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Agent_Step_Time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Experiment_Time</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Obs_Prob</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Std_Total_Rounds</t>
         </is>
       </c>
     </row>
@@ -493,28 +518,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>86.22</v>
+        <v>55.298</v>
       </c>
       <c r="D2" t="n">
-        <v>86.22</v>
+        <v>55.298</v>
       </c>
       <c r="E2" t="n">
-        <v>1.99355</v>
+        <v>3.0855516</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09322999999999999</v>
+        <v>0.15053798</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09322999999999999</v>
+        <v>0.15053798</v>
       </c>
       <c r="H2" t="n">
-        <v>7.91037</v>
+        <v>8.307759420000002</v>
       </c>
       <c r="I2" t="n">
-        <v>0.85</v>
+        <v>5.236031708852824</v>
       </c>
       <c r="J2" t="n">
-        <v>11.35075</v>
+        <v>5.236031708852824</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3156637658242528</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.01905519671804852</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01905519671804852</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.185786966129223</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -525,28 +565,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>55.298</v>
+        <v>86.22</v>
       </c>
       <c r="D3" t="n">
-        <v>55.298</v>
+        <v>86.22</v>
       </c>
       <c r="E3" t="n">
-        <v>3.08555</v>
+        <v>1.99355016</v>
       </c>
       <c r="F3" t="n">
-        <v>0.15054</v>
+        <v>0.09323035999999998</v>
       </c>
       <c r="G3" t="n">
-        <v>0.15054</v>
+        <v>0.09323035999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>8.30776</v>
+        <v>7.91036976</v>
       </c>
       <c r="I3" t="n">
-        <v>0.15</v>
+        <v>11.36212108680339</v>
       </c>
       <c r="J3" t="n">
-        <v>5.23079</v>
+        <v>11.36212108680339</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2577630931431959</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01437619874832365</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01437619874832365</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.7258704967389256</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -563,22 +618,37 @@
         <v>61.654</v>
       </c>
       <c r="E4" t="n">
-        <v>2.79854</v>
+        <v>2.798544619999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.21965</v>
+        <v>0.2196498</v>
       </c>
       <c r="G4" t="n">
-        <v>0.10982</v>
+        <v>0.10982498</v>
       </c>
       <c r="H4" t="n">
-        <v>3.34735</v>
+        <v>3.3473545</v>
       </c>
       <c r="I4" t="n">
+        <v>4.786671541781177</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.570028992109672</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3789214474499044</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.03084583071510654</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01542299750059653</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4575747084627816</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.78188</v>
       </c>
     </row>
     <row r="5">
@@ -598,19 +668,34 @@
         <v>1.9068</v>
       </c>
       <c r="F5" t="n">
-        <v>0.143</v>
+        <v>0.14300214</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07149999999999999</v>
+        <v>0.0715008</v>
       </c>
       <c r="H5" t="n">
-        <v>3.23749</v>
+        <v>3.23749456</v>
       </c>
       <c r="I5" t="n">
+        <v>7.87533604588854</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14.27189328280419</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2958295109652109</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.02432820726971711</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01216412596453037</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.3465463592563541</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.86746</v>
       </c>
     </row>
     <row r="6">
@@ -621,28 +706,43 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>23.976</v>
+        <v>15.236</v>
       </c>
       <c r="D6" t="n">
-        <v>89.018</v>
+        <v>60.862</v>
       </c>
       <c r="E6" t="n">
-        <v>1.95328</v>
+        <v>2.87115312</v>
       </c>
       <c r="F6" t="n">
-        <v>0.20806</v>
+        <v>0.29655032</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05202</v>
+        <v>0.07413755999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1.21</v>
+        <v>1.11953054</v>
       </c>
       <c r="I6" t="n">
-        <v>0.85</v>
+        <v>2.97422191370852</v>
       </c>
       <c r="J6" t="n">
-        <v>5.13064</v>
+        <v>11.86898063874087</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4997529037485183</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.05562049348656463</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01390513878447933</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2632440558359758</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +753,43 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.236</v>
+        <v>23.976</v>
       </c>
       <c r="D7" t="n">
-        <v>60.862</v>
+        <v>89.018</v>
       </c>
       <c r="E7" t="n">
-        <v>2.87115</v>
+        <v>1.95328032</v>
       </c>
       <c r="F7" t="n">
-        <v>0.29655</v>
+        <v>0.20806374</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07414</v>
+        <v>0.0520158</v>
       </c>
       <c r="H7" t="n">
-        <v>1.11953</v>
+        <v>1.20999708</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15</v>
+        <v>5.13577417267401</v>
       </c>
       <c r="J7" t="n">
-        <v>2.97125</v>
+        <v>15.28649829294205</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3292600327434565</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.04182342545567128</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.01045617936599539</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1906400623799785</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -691,22 +806,37 @@
         <v>60.088</v>
       </c>
       <c r="E8" t="n">
-        <v>2.89505</v>
+        <v>2.89505116</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3334</v>
+        <v>0.33340368</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05557</v>
+        <v>0.05556754</v>
       </c>
       <c r="H8" t="n">
-        <v>0.56271</v>
+        <v>0.5627143999999999</v>
       </c>
       <c r="I8" t="n">
+        <v>1.756294149132358</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.46629555694711</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.4951676843845648</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.07580552601761441</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01263413292545064</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1835178211662595</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.75454</v>
       </c>
     </row>
     <row r="9">
@@ -723,22 +853,37 @@
         <v>87.16</v>
       </c>
       <c r="E9" t="n">
-        <v>1.99037</v>
+        <v>1.99036614</v>
       </c>
       <c r="F9" t="n">
-        <v>0.22364</v>
+        <v>0.22363896</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03727</v>
+        <v>0.03727318</v>
       </c>
       <c r="H9" t="n">
-        <v>0.61069</v>
+        <v>0.61069242</v>
       </c>
       <c r="I9" t="n">
+        <v>4.041394529055404</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14.34985144428143</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3209049513642951</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0454976311933579</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.007582819924250292</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.134390210815631</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.03735</v>
       </c>
     </row>
     <row r="10">
@@ -749,28 +894,43 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>12.944</v>
+        <v>7.462</v>
       </c>
       <c r="D10" t="n">
-        <v>81.996</v>
+        <v>59.526</v>
       </c>
       <c r="E10" t="n">
-        <v>2.11644</v>
+        <v>2.94189828</v>
       </c>
       <c r="F10" t="n">
-        <v>0.21396</v>
+        <v>0.30860202</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02674</v>
+        <v>0.0385753</v>
       </c>
       <c r="H10" t="n">
-        <v>0.33834</v>
+        <v>0.2948432</v>
       </c>
       <c r="I10" t="n">
-        <v>0.85</v>
+        <v>1.427105202329889</v>
       </c>
       <c r="J10" t="n">
-        <v>3.336</v>
+        <v>11.35990399773147</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.559584902010909</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0917375751385669</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01146720800495298</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1314510021860291</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
@@ -781,28 +941,43 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7.462</v>
+        <v>12.944</v>
       </c>
       <c r="D11" t="n">
-        <v>59.526</v>
+        <v>81.996</v>
       </c>
       <c r="E11" t="n">
-        <v>2.9419</v>
+        <v>2.11643684</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3086</v>
+        <v>0.21395906</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03858</v>
+        <v>0.02674488</v>
       </c>
       <c r="H11" t="n">
-        <v>0.29484</v>
+        <v>0.33834146</v>
       </c>
       <c r="I11" t="n">
-        <v>0.15</v>
+        <v>3.339336211384731</v>
       </c>
       <c r="J11" t="n">
-        <v>1.42568</v>
+        <v>13.48330757515873</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3456763062377906</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.05146242290895095</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.006432552374111803</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.09306303523484846</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
@@ -819,22 +994,37 @@
         <v>61.474</v>
       </c>
       <c r="E12" t="n">
-        <v>2.86729</v>
+        <v>2.86728752</v>
       </c>
       <c r="F12" t="n">
-        <v>0.28398</v>
+        <v>0.2839774999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0284</v>
+        <v>0.02839776</v>
       </c>
       <c r="H12" t="n">
-        <v>0.18065</v>
+        <v>0.18065502</v>
       </c>
       <c r="I12" t="n">
+        <v>1.279734128199196</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12.77025774860993</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.5937619162538437</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.09080514557267638</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.009080204425408848</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.08488609587172853</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.27845</v>
       </c>
     </row>
     <row r="13">
@@ -851,22 +1041,37 @@
         <v>78.60599999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>2.21958</v>
+        <v>2.21957778</v>
       </c>
       <c r="F13" t="n">
-        <v>0.18921</v>
+        <v>0.18920812</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01892</v>
+        <v>0.01892072</v>
       </c>
       <c r="H13" t="n">
-        <v>0.20158</v>
+        <v>0.20157828</v>
       </c>
       <c r="I13" t="n">
+        <v>2.914665426613867</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14.14407557062302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4002347793078543</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.05029513277870987</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.005029555122579145</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.06669907373506646</v>
+      </c>
+      <c r="O13" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.91175</v>
       </c>
     </row>
   </sheetData>

--- a/results/cu_mnm/15x15/cu_mnm_15x15_True_2_500.xlsx
+++ b/results/cu_mnm/15x15/cu_mnm_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
